--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2941176.275866553</v>
+        <v>3050317.52942668</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8514824.100067494</v>
+        <v>8537270.975549519</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>386.8541281533192</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>184.6543605014862</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249216</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>266.0249272153459</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>31.36925717220427</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3892914708037</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.23411901371832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.09280612636879</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>314.874885468287</v>
       </c>
       <c r="G8" t="n">
-        <v>73.11283009582525</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.936360447661463</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>20.24851915657725</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.48749137895557</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>72.57619040703456</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428269</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>202.9133247598021</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>23.41986852521121</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2998,19 +3000,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>105.9742079424032</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>137.3676443337307</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>202.9133247598017</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>86.88943397770137</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.3242997534473</v>
       </c>
       <c r="U43" t="n">
-        <v>251.0718348128885</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>32.2604189625029</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>70.04554881124375</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1599.080600298115</v>
+        <v>1265.920521844766</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>1265.920521844766</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1265.920521844766</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1265.920521844766</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>875.1587762353522</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>458.7065149272269</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>125.8997233870229</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>287.6947354520177</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>525.3175166702091</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1166.340726290103</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1471.815832525688</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1968.860256443061</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2336.351904522572</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="W2" t="n">
-        <v>2375.819772338048</v>
+        <v>1652.520361908887</v>
       </c>
       <c r="X2" t="n">
-        <v>2375.819772338048</v>
+        <v>1652.520361908887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1985.680440362237</v>
+        <v>1652.520361908887</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>77.11538214995046</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>198.5384744202291</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>408.1293476730596</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>672.0688791685468</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1313.092088788441</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1941.820736623861</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>635.6935740023988</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>635.6935740023988</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>635.6935740023988</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764878</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764878</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>54.034527330184</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159871</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341311</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666712</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092719</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357427</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993471</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>904.4056216946674</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>904.4056216946674</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>635.6935740023988</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>635.6935740023988</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>635.6935740023988</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.671350819693</v>
+        <v>1279.116237208469</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.671350819693</v>
+        <v>910.1537202680572</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.405652212943</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E5" t="n">
-        <v>723.6173996146983</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2005.350650739663</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1652.581995469549</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795505</v>
+        <v>1279.116237208469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>1279.116237208469</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251085</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>704.6174692164192</v>
+        <v>738.3378099863246</v>
       </c>
       <c r="C7" t="n">
-        <v>535.6812862885123</v>
+        <v>569.4016270584177</v>
       </c>
       <c r="D7" t="n">
-        <v>385.5646468761765</v>
+        <v>419.284987646082</v>
       </c>
       <c r="E7" t="n">
-        <v>237.6515532937834</v>
+        <v>419.284987646082</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>272.3950401481716</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>104.4188514100609</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>104.4188514100609</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1255.744530921303</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>1255.744530921303</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>966.3273608843419</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466589</v>
+        <v>738.3378099863246</v>
       </c>
       <c r="Y7" t="n">
-        <v>886.2659340466589</v>
+        <v>738.3378099863246</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1346.511635257854</v>
+        <v>1108.724948496402</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.511635257854</v>
+        <v>739.7624315559908</v>
       </c>
       <c r="D8" t="n">
-        <v>988.2459366511032</v>
+        <v>381.4967329492403</v>
       </c>
       <c r="E8" t="n">
-        <v>602.4576840528589</v>
+        <v>381.4967329492403</v>
       </c>
       <c r="F8" t="n">
-        <v>191.4717792632513</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>2258.929878797416</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1885.464120536336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1733.111475321975</v>
+        <v>1495.324788560524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>942.9699568457231</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1309.275846338049</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1699.685407663791</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2034.614088379323</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2284.090816244342</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525.2795099591619</v>
+        <v>791.2649346192866</v>
       </c>
       <c r="C10" t="n">
-        <v>525.2795099591619</v>
+        <v>622.3287516913797</v>
       </c>
       <c r="D10" t="n">
-        <v>375.1628705468262</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="E10" t="n">
-        <v>227.2497769644331</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F10" t="n">
-        <v>227.2497769644331</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G10" t="n">
-        <v>59.26331227271166</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>59.26331227271166</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1301.474683799777</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>1301.474683799777</v>
       </c>
       <c r="W10" t="n">
-        <v>927.7205539329318</v>
+        <v>1012.057513762817</v>
       </c>
       <c r="X10" t="n">
-        <v>927.7205539329318</v>
+        <v>1012.057513762817</v>
       </c>
       <c r="Y10" t="n">
-        <v>706.9279747894017</v>
+        <v>791.2649346192866</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5294,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5941,19 +5943,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4016.368195026011</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3761.683706820124</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3472.266536783163</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>3244.276985885146</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>3023.484406741616</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2680.685310603265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6470,25 +6472,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232836</v>
@@ -6616,13 +6618,13 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>251.5626541092265</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6897,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>228.9331431646413</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>4435.461999481584</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>251.5626541092265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249853</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232836</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.406917066814</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>779.6143379232836</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7405,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372933</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>853.594109445026</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326902</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502971</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429802</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281681</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346703</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203173</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942341</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>224.1699036371104</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159752</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945065</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>204.6347509527516</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>10.05242792961491</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>137.4118612602852</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-3.069544618483633e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-2.159775989708408e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.12798163925679</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715145</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>213.9468079295564</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864856</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>83.27114962944202</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>125.1956044930012</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>180.5487903941878</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>114.7699989900973</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.27114962944248</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>131.6952193743934</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>65.08115057384094</v>
       </c>
       <c r="U43" t="n">
-        <v>35.1126395763556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>147.5715612194344</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>75.3754992116875</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>749774.8233139298</v>
+        <v>772587.2664651654</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749774.8233139298</v>
+        <v>749581.0007693121</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749774.8233139298</v>
+        <v>749581.000769312</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.609736506</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753976</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695019</v>
+        <v>6287.480531694997</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,31 +26435,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695008</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695028</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695027</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699087</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-640509.6417476287</v>
+        <v>-490928.3452029077</v>
       </c>
       <c r="C6" t="n">
-        <v>474242.1418282902</v>
+        <v>302573.3005079905</v>
       </c>
       <c r="D6" t="n">
-        <v>474242.1418282907</v>
+        <v>475337.6602978838</v>
       </c>
       <c r="E6" t="n">
-        <v>71179.15775635734</v>
+        <v>77775.73163515261</v>
       </c>
       <c r="F6" t="n">
+        <v>578664.5993809033</v>
+      </c>
+      <c r="G6" t="n">
         <v>578664.5993809034</v>
       </c>
-      <c r="G6" t="n">
-        <v>578664.5993809038</v>
-      </c>
       <c r="H6" t="n">
-        <v>578664.5993809033</v>
+        <v>578664.5993809039</v>
       </c>
       <c r="I6" t="n">
         <v>578664.5993809034</v>
       </c>
       <c r="J6" t="n">
-        <v>411059.421570921</v>
+        <v>409250.5825548552</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809034</v>
+        <v>578664.5993809033</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809034</v>
+        <v>578664.5993809035</v>
       </c>
       <c r="M6" t="n">
-        <v>446057.3056519768</v>
+        <v>447780.1424766683</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809033</v>
+        <v>578664.5993809038</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809031</v>
+        <v>578664.5993809032</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.5993809031</v>
+        <v>578664.5993809036</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20.02191758839228</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>164.5866082159268</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>20.49807112124512</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>323.3137844484787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>218.4867542709077</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>127.1869290092129</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>52.39785338663233</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>92.00116027342443</v>
       </c>
       <c r="G8" t="n">
-        <v>338.4348726771287</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>96.86023475623912</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.9780800631284</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-2.106020895186895e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.681602616057837e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090891</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066895</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611369</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014937</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682851</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658683</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485895</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775956</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330904</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325346</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282124</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674104</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307771</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261556</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.262332560511</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911972</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240732</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257154</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028909</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969222</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993425</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777202</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855589</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600313</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932505</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519961</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567077</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779087</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547056</v>
+        <v>430.1367711736317</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>441.0292693655499</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N27" t="n">
-        <v>556.5325452335035</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>297.1808238847171</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>261.5336801130326</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33752,13 +33754,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639531</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,34 +33970,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>504.7812948344581</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34451,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.8483515800032</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161564</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315064</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692774</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>502.0650746640131</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>524.1263114938087</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586409</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>25.57123921932399</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>122.6495881517966</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>211.7079527806368</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>266.6055873691789</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>635.0794422580004</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>378.7044084817509</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>276.0148132527185</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883111</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550911</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944467</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0158803980275</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>348.3642266321717</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4415474900475</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N11" t="n">
         <v>751.858447819352</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334643</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748315</v>
+        <v>291.5823913937575</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>302.4748895856757</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N27" t="n">
-        <v>425.1908331501702</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>159.3393849103582</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>134.6960534463659</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962288</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>362.6472609124398</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,10 +37876,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3050317.52942668</v>
+        <v>3046161.343118715</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>246.4276497588094</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>386.8541281533192</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>153.553288853138</v>
       </c>
       <c r="W4" t="n">
-        <v>266.0249272153459</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>31.36925717220427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>36.92398242574672</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.09280612636879</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>48.26934915004944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>314.874885468287</v>
+        <v>51.65840333273022</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.24851915657725</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>76.60129660960749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>82.25298866282583</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.48749137895557</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20.88994825141674</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>72.57619040703456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>202.9133247598021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>23.41986852521121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,13 +3088,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>105.9742079424032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695582</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>137.3676443337307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>100.7362831624772</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.88943397770137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>152.3242997534473</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.2604189625029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.920521844766</v>
+        <v>1609.135160198253</v>
       </c>
       <c r="C2" t="n">
-        <v>1265.920521844766</v>
+        <v>1609.135160198253</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.920521844766</v>
+        <v>1360.218342260062</v>
       </c>
       <c r="E2" t="n">
-        <v>1265.920521844766</v>
+        <v>974.4300896618176</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353522</v>
+        <v>563.44418487221</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870229</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520177</v>
+        <v>287.6947354520153</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702091</v>
+        <v>928.7179450719095</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.340726290103</v>
+        <v>1224.78851162951</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.815832525688</v>
+        <v>1865.811721249404</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443061</v>
+        <v>2248.314393858363</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2448.618721147463</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466517</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908887</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.520361908887</v>
+        <v>1609.135160198253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.520361908887</v>
+        <v>1609.135160198253</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093827</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995046</v>
+        <v>81.08615341729347</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202291</v>
+        <v>464.3298303300239</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730596</v>
+        <v>1041.052645433278</v>
       </c>
       <c r="M3" t="n">
-        <v>672.0688791685468</v>
+        <v>1304.992176928763</v>
       </c>
       <c r="N3" t="n">
-        <v>1313.092088788441</v>
+        <v>1590.326047362094</v>
       </c>
       <c r="O3" t="n">
-        <v>1941.820736623861</v>
+        <v>1829.13099911355</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.6935740023988</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C4" t="n">
-        <v>635.6935740023988</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>635.6935740023988</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="E4" t="n">
-        <v>487.7804804200057</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702565</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702565</v>
+        <v>991.0700018628613</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.542248702565</v>
+        <v>766.6588426382993</v>
       </c>
       <c r="U4" t="n">
-        <v>904.4056216946674</v>
+        <v>766.6588426382993</v>
       </c>
       <c r="V4" t="n">
-        <v>904.4056216946674</v>
+        <v>611.5545104634125</v>
       </c>
       <c r="W4" t="n">
-        <v>635.6935740023988</v>
+        <v>611.5545104634125</v>
       </c>
       <c r="X4" t="n">
-        <v>635.6935740023988</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.6935740023988</v>
+        <v>383.5649595653952</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1279.116237208469</v>
+        <v>1613.451665985994</v>
       </c>
       <c r="C5" t="n">
-        <v>910.1537202680572</v>
+        <v>1613.451665985994</v>
       </c>
       <c r="D5" t="n">
-        <v>878.4676019122953</v>
+        <v>1255.185967379243</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>869.3977147809992</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>458.4118099913916</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281973</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281973</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135512</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140987</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083234</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739663</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.581995469549</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="X5" t="n">
-        <v>1279.116237208469</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1279.116237208469</v>
+        <v>1613.451665985994</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682818</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845966</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1219.783862516112</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802665</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>738.3378099863246</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>569.4016270584177</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>419.284987646082</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>419.284987646082</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>272.3950401481716</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>104.4188514100609</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>104.4188514100609</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1598.226751820495</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.744530921303</v>
+        <v>1309.108974830893</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.744530921303</v>
+        <v>1054.424486625006</v>
       </c>
       <c r="W7" t="n">
-        <v>966.3273608843419</v>
+        <v>1054.424486625006</v>
       </c>
       <c r="X7" t="n">
-        <v>738.3378099863246</v>
+        <v>1054.424486625006</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.3378099863246</v>
+        <v>833.6319074814764</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1108.724948496402</v>
+        <v>888.9769052326571</v>
       </c>
       <c r="C8" t="n">
-        <v>739.7624315559908</v>
+        <v>888.9769052326571</v>
       </c>
       <c r="D8" t="n">
-        <v>381.4967329492403</v>
+        <v>888.9769052326571</v>
       </c>
       <c r="E8" t="n">
-        <v>381.4967329492403</v>
+        <v>888.9769052326571</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281973</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281973</v>
@@ -4837,19 +4837,19 @@
         <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797416</v>
+        <v>2005.350650739663</v>
       </c>
       <c r="W8" t="n">
-        <v>2258.929878797416</v>
+        <v>1652.581995469549</v>
       </c>
       <c r="X8" t="n">
-        <v>1885.464120536336</v>
+        <v>1279.116237208469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1495.324788560524</v>
+        <v>888.9769052326571</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>573.7192355186005</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457231</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338049</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.685407663791</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379323</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2284.090816244342</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
         <v>2536.977948259489</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.2649346192866</v>
+        <v>939.1780282016797</v>
       </c>
       <c r="C10" t="n">
-        <v>622.3287516913797</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D10" t="n">
-        <v>472.2121122790439</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E10" t="n">
         <v>472.2121122790439</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1301.474683799777</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1301.474683799777</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.057513762817</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="X10" t="n">
-        <v>1012.057513762817</v>
+        <v>1341.619072175449</v>
       </c>
       <c r="Y10" t="n">
-        <v>791.2649346192866</v>
+        <v>1120.826493031919</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,31 +5290,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314344</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3023.484406741616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4016.368195026011</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3761.683706820124</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3472.266536783163</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3244.276985885146</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3023.484406741616</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>803.2707707770323</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>228.9331431646413</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7423,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.199616443681</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2043.199616443681</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1788.515128237794</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302816</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159286</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037422</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
-        <v>224.1699036371104</v>
+        <v>108.4711649417443</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159752</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.01088006802382</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945065</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>204.6347509527516</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>130.6961128228668</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O6" t="n">
-        <v>10.05242792961491</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>148.4266296017847</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.4118612602852</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.159775989708408e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>97.57899151911147</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>99.12798163925679</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>124.5310997715145</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>83.27114962944202</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.1956044930012</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>180.5487903941878</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
-        <v>114.7699989900973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.6952193743934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.08115057384094</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.5715612194344</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772587.2664651654</v>
+        <v>772587.2664651659</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749581.0007693121</v>
+        <v>749581.000769312</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749581.000769312</v>
+        <v>749581.0007693121</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846415</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898963</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>1.655303094594274e-10</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26426,40 +26426,40 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694997</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695008</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695027</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
         <v>93481.08936150961</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029077</v>
+        <v>-490928.3452029047</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079905</v>
+        <v>302573.3005079876</v>
       </c>
       <c r="D6" t="n">
         <v>475337.6602978838</v>
       </c>
       <c r="E6" t="n">
-        <v>77775.73163515261</v>
+        <v>77428.35238079603</v>
       </c>
       <c r="F6" t="n">
-        <v>578664.5993809033</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="G6" t="n">
-        <v>578664.5993809034</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="H6" t="n">
-        <v>578664.5993809039</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="I6" t="n">
-        <v>578664.5993809034</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="J6" t="n">
-        <v>409250.5825548552</v>
+        <v>408903.2033004983</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809033</v>
+        <v>578317.2201265465</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809035</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="M6" t="n">
-        <v>447780.1424766683</v>
+        <v>447432.7632223113</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809038</v>
+        <v>578317.2201265463</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809032</v>
+        <v>578317.2201265466</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.5993809036</v>
+        <v>578317.2201265466</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498448</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352466</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522381</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>108.2553918618735</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20.02191758839228</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>98.58435447069004</v>
       </c>
       <c r="W4" t="n">
-        <v>20.49807112124512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>323.3137844484787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>374.6010409561226</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>52.39785338663233</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>172.435879563389</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>92.00116027342443</v>
+        <v>355.2176424089812</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>265.9780800631284</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>209.9217017269835</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-2.106020895186895e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31299,16 +31299,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31381,7 +31381,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31396,7 +31396,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31442,7 +31442,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31451,7 +31451,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>430.1367711736317</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,31 +32551,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>548.8125296967487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>504.7812948344581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.8483515800032</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O2" t="n">
-        <v>502.0650746640131</v>
+        <v>386.366335968645</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>103.2802639586397</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138416</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932399</v>
+        <v>29.58211928734721</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517966</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806368</v>
+        <v>582.5482980840947</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>266.6055873691773</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407382</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7044084817509</v>
+        <v>492.5324261689353</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34947,19 +34947,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>500.7020618050138</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O6" t="n">
-        <v>348.3642266321717</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35108,7 +35108,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>336.9735885949289</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352466</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
         <v>370.005948982147</v>
@@ -35272,7 +35272,7 @@
         <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4415474900475</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>25.33729477225506</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790292</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>291.5823913937575</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902925</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>414.8381222824185</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>362.6472609124398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3046161.343118715</v>
+        <v>3047921.8734215</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>246.4276497588094</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950442</v>
+        <v>309.4744197364409</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885219</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734244</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906504</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833759</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>38.77391235365951</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713016</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>153.553288853138</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>36.92398242574672</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>223.5518288029175</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>48.26934915004944</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>70.34304502550879</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>51.65840333273022</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.78235759101857</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1308,7 +1308,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.60129660960754</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>76.60129660960749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.25298866282583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>28.45765197016539</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>181.1911789297516</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>100.7362831624772</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,61 +4306,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.135160198253</v>
+        <v>1256.366504928139</v>
       </c>
       <c r="C2" t="n">
-        <v>1609.135160198253</v>
+        <v>1256.366504928139</v>
       </c>
       <c r="D2" t="n">
-        <v>1360.218342260062</v>
+        <v>1256.366504928139</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618176</v>
+        <v>870.5782523298944</v>
       </c>
       <c r="F2" t="n">
-        <v>563.44418487221</v>
+        <v>459.5923475402869</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640846</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870219</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520153</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719095</v>
+        <v>670.1974080609651</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.78851162951</v>
+        <v>966.2679746185681</v>
       </c>
       <c r="N2" t="n">
-        <v>1865.811721249404</v>
+        <v>1607.291184238462</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858363</v>
+        <v>2248.314393858356</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147463</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466517</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016316</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077747</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
         <v>1982.600918459333</v>
@@ -4369,13 +4369,13 @@
         <v>1982.600918459333</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.600918459333</v>
+        <v>1629.832263189219</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.135160198253</v>
+        <v>1256.366504928139</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.135160198253</v>
+        <v>1256.366504928139</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.629392168681</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009385</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>81.08615341729347</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>464.3298303300239</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433278</v>
+        <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928763</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362094</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.13099911355</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.9164947351555</v>
+        <v>357.0208269100501</v>
       </c>
       <c r="C4" t="n">
-        <v>201.9164947351555</v>
+        <v>357.0208269100501</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281974</v>
+        <v>206.9041874977144</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281974</v>
+        <v>206.9041874977144</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281974</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281974</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281974</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018365</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159861</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341293</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666686</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092685</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357423</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993466</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.54224870256</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628613</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426382993</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>766.6588426382993</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="V4" t="n">
-        <v>611.5545104634125</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="W4" t="n">
-        <v>611.5545104634125</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5649595653952</v>
+        <v>538.6692917402899</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5649595653952</v>
+        <v>538.6692917402899</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1613.451665985994</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>1613.451665985994</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.185967379243</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>869.3977147809992</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>458.4118099913916</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961806</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.590997961806</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.590997961806</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.590997961806</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1613.451665985994</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="6">
@@ -4631,34 +4631,34 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128337</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1219.783862516112</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136006</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4716,49 +4716,49 @@
         <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1598.226751820495</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1309.108974830893</v>
+        <v>1054.424486625006</v>
       </c>
       <c r="V7" t="n">
         <v>1054.424486625006</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.9769052326571</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="C8" t="n">
-        <v>888.9769052326571</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="D8" t="n">
-        <v>888.9769052326571</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>888.9769052326571</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
         <v>836.796699846061</v>
@@ -4801,7 +4801,7 @@
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104781</v>
@@ -4810,7 +4810,7 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4822,34 +4822,34 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2544.758061503594</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083234</v>
+        <v>2291.178833445841</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739663</v>
+        <v>1960.11594610227</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469549</v>
+        <v>1607.347290832156</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.116237208469</v>
+        <v>1233.881532571076</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.9769052326571</v>
+        <v>843.7422005952644</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186005</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349152</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452983</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
         <v>2212.152044033533</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.1780282016797</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>770.2418452737728</v>
+        <v>847.6168923541844</v>
       </c>
       <c r="D10" t="n">
-        <v>620.1252058614371</v>
+        <v>697.5002529418487</v>
       </c>
       <c r="E10" t="n">
-        <v>472.2121122790439</v>
+        <v>549.5871593594555</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811336</v>
+        <v>402.6972118615452</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>234.7210231234345</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -5001,13 +5001,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.608623073467</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>1341.619072175449</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.826493031919</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="11">
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,22 +5120,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.4182386381636</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>518.7345161832558</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>371.8445686853454</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>204.6484694002253</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5357,22 +5357,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5655,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6068,22 +6068,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6305,19 +6305,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,19 +6542,19 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7016,19 +7016,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7490,19 +7490,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,19 +7727,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037422</v>
+        <v>146.3433246371256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659714</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>108.4711649417443</v>
+        <v>369.603020508343</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>4.01088006802382</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>214.0881678038581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>130.6961128228668</v>
+        <v>256.7871481632765</v>
       </c>
       <c r="N6" t="n">
         <v>253.1450992870219</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017847</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>274.5176649421933</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.57899151911147</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>111.8370608760585</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.39347442234322</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772587.2664651659</v>
+        <v>772587.2664651653</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749581.000769312</v>
+        <v>749581.0007693121</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749581.0007693121</v>
+        <v>749581.000769312</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846415</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846417</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753948</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898963</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151605</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26432,13 +26432,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
@@ -26447,19 +26447,19 @@
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699083</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029047</v>
+        <v>-490928.3452029085</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079876</v>
+        <v>302573.3005079919</v>
       </c>
       <c r="D6" t="n">
-        <v>475337.6602978838</v>
+        <v>475337.6602978834</v>
       </c>
       <c r="E6" t="n">
-        <v>77428.35238079603</v>
+        <v>77740.99370971732</v>
       </c>
       <c r="F6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="G6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.8614554681</v>
       </c>
       <c r="H6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="I6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="J6" t="n">
-        <v>408903.2033004983</v>
+        <v>409215.8446294198</v>
       </c>
       <c r="K6" t="n">
-        <v>578317.2201265465</v>
+        <v>578629.861455468</v>
       </c>
       <c r="L6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="M6" t="n">
-        <v>447432.7632223113</v>
+        <v>447745.4045512324</v>
       </c>
       <c r="N6" t="n">
-        <v>578317.2201265463</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="O6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.861455468</v>
       </c>
       <c r="P6" t="n">
-        <v>578317.2201265466</v>
+        <v>578629.8614554679</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498448</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522381</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>428.2691096918289</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>108.2553918618735</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>102.8133189586032</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>106.6471356692717</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639206</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>98.58435447069004</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>374.6010409561226</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>27.49160697425776</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>172.435879563389</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>215.8835541941968</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>355.2176424089812</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>161.7765483547421</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>70.55976360183942</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>209.9217017269835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090879</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625572</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115537</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066885</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611355</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014918</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682829</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658663</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485875</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775938</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330891</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325338</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282097</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494783</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072703</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674098</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743142</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307749</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859901</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261546</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605097</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911956</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240715</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257139</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433284</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028901</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526427</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9638617996921</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993399</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651422</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351901</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777186</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855552</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711379</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600305</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932497</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840036</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184392</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351501</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311386</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519936</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567068</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965165</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189582</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000217</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161549</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352467</v>
+        <v>386.3663359686327</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410102</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>386.366335968645</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223243</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586397</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138416</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>29.58211928734721</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643742</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840947</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691773</v>
+        <v>480.6937551730376</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407382</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812694</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689353</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527177</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882741</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.857665945255</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203466</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550902</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632322</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324789</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000436</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944423</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961988</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>500.7020618050138</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949289</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
@@ -35269,7 +35269,7 @@
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>526.5143597553437</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37858,13 +37858,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
